--- a/Model_Comparison_Disease_Burden.xlsx
+++ b/Model_Comparison_Disease_Burden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7342A4CC-E978-4B66-B389-703E913FEDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528B478-E305-478A-9193-D40A83AFD440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refugee-CVD" sheetId="2" r:id="rId1"/>
@@ -201,10 +201,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1888,13 +1888,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>615369.34111991618</v>
@@ -1929,13 +1929,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>453602.29534603911</v>
@@ -1970,13 +1970,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>205817.6957424029</v>
@@ -2011,13 +2011,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>0.45374041942488619</v>
@@ -2090,25 +2090,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>1446.5150646880927</v>
@@ -2709,12 +2709,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>1432.6082603876102</v>
@@ -2745,12 +2745,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>149.02918599690378</v>
@@ -2781,12 +2781,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>0.104026474031765</v>
@@ -2831,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4195,13 +4195,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>1872.1865045675722</v>
@@ -4236,13 +4236,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>1877.2466885107524</v>
@@ -4277,13 +4277,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>10.622208602314444</v>
@@ -4318,13 +4318,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>5.6583978372822166E-3</v>
@@ -4374,7 +4374,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="N21" sqref="N21:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5737,13 +5737,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>411.32164383377642</v>
@@ -5778,13 +5778,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>410.63302070290206</v>
@@ -5819,13 +5819,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>2.436496583556552</v>
@@ -5860,13 +5860,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>5.9335135284197876E-3</v>
@@ -5915,7 +5915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7279,13 +7279,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>69.922321774521308</v>
@@ -7320,13 +7320,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>70.192019258500949</v>
@@ -7361,13 +7361,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>0.5422410011998442</v>
@@ -7402,13 +7402,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>7.725109021338967E-3</v>
@@ -8821,13 +8821,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>58.667458765795814</v>
@@ -8862,13 +8862,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>58.428888456159925</v>
@@ -8903,13 +8903,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>0.55242763134698547</v>
@@ -8944,13 +8944,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>9.4547003364864671E-3</v>
@@ -10363,13 +10363,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>9.2714537555827174</v>
@@ -10404,13 +10404,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>9.2496397612601733</v>
@@ -10445,13 +10445,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>6.6388452520140556E-2</v>
@@ -10486,13 +10486,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>7.1774095244435529E-3</v>
@@ -10564,25 +10564,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11123,12 +11123,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>1936.0687496873493</v>
@@ -11159,12 +11159,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>1929.6827368972217</v>
@@ -11195,12 +11195,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>14.354756880375273</v>
@@ -11231,12 +11231,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>7.4389207126641941E-3</v>
@@ -11304,25 +11304,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -11863,12 +11863,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>419.1570163204733</v>
@@ -11899,12 +11899,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>423.74656728534603</v>
@@ -11935,12 +11935,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>11.502237817926448</v>
@@ -11971,12 +11971,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>2.714414394342686E-2</v>
@@ -12044,25 +12044,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12603,12 +12603,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>72.391555859459856</v>
@@ -12639,12 +12639,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>71.946993331658547</v>
@@ -12675,12 +12675,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>1.081389150539078</v>
@@ -12711,12 +12711,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>1.503035916392129E-2</v>
@@ -12784,25 +12784,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13343,12 +13343,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>59.504057568376005</v>
@@ -13379,12 +13379,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>60.339583211478164</v>
@@ -13415,12 +13415,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>1.8883415174379921</v>
@@ -13451,12 +13451,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>3.1295236342944781E-2</v>
@@ -13501,8 +13501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14868,13 +14868,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>132779.4461979093</v>
@@ -14909,13 +14909,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>98943.149521657309</v>
@@ -14950,13 +14950,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>44448.91619080997</v>
@@ -14991,13 +14991,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>0.44923692449350128</v>
@@ -15069,25 +15069,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15628,12 +15628,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>9.3945710290322104</v>
@@ -15664,12 +15664,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>9.5032933237551234</v>
@@ -15700,12 +15700,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>0.28143635354619467</v>
@@ -15736,12 +15736,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>2.9614612951354022E-2</v>
@@ -15786,8 +15786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17153,13 +17153,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>22978.613060637359</v>
@@ -17194,13 +17194,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>16968.502849664023</v>
@@ -17235,13 +17235,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>7712.2626858284102</v>
@@ -17276,13 +17276,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>0.45450460504128176</v>
@@ -17331,8 +17331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18698,13 +18698,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>18720.69430314449</v>
@@ -18739,13 +18739,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>14068.550102425399</v>
@@ -18780,13 +18780,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>6307.3491847020841</v>
@@ -18821,13 +18821,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>0.44832972401432508</v>
@@ -18876,8 +18876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20243,13 +20243,13 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35">
         <f>MEDIAN(F2:F33)</f>
         <v>2984.6586864161964</v>
@@ -20284,13 +20284,13 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36">
         <f>AVERAGE(F2:F33)</f>
         <v>2228.3109009529876</v>
@@ -20325,13 +20325,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37">
         <f>_xlfn.STDEV.S(F2:F33)</f>
         <v>1000.5331009731328</v>
@@ -20366,13 +20366,13 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38">
         <f>F37/F36</f>
         <v>0.44900965145628119</v>
@@ -20444,25 +20444,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -21027,12 +21027,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>286688.90586947254</v>
@@ -21063,12 +21063,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>291254.91035920184</v>
@@ -21099,12 +21099,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>32555.115102898279</v>
@@ -21135,12 +21135,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>0.11177533474971589</v>
@@ -21209,25 +21209,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -21792,12 +21792,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>64496.167484909907</v>
@@ -21828,12 +21828,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>63884.720229795246</v>
@@ -21864,12 +21864,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>6658.862796971659</v>
@@ -21900,12 +21900,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>0.10423247958227774</v>
@@ -21973,25 +21973,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -22556,12 +22556,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>10746.60094745622</v>
@@ -22592,12 +22592,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>10862.022728055574</v>
@@ -22628,12 +22628,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>1244.0441628048234</v>
@@ -22664,12 +22664,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>0.11453153744482374</v>
@@ -22737,25 +22737,25 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -23320,12 +23320,12 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19">
         <f>MEDIAN(E2:E17)</f>
         <v>9203.6246111163964</v>
@@ -23356,12 +23356,12 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20">
         <f>AVERAGE(E2:E17)</f>
         <v>9095.2832471273287</v>
@@ -23392,12 +23392,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21">
         <f>_xlfn.STDEV.S(E2:E17)</f>
         <v>940.76428256096722</v>
@@ -23428,12 +23428,12 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22">
         <f>E21/E20</f>
         <v>0.10343430292378195</v>

--- a/Model_Comparison_Disease_Burden.xlsx
+++ b/Model_Comparison_Disease_Burden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Ukraine_Displacement\Ukraine_Displacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4528B478-E305-478A-9193-D40A83AFD440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60EAB12-70C7-4834-B8A9-44399DB362C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Refugee-CVD" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="27">
   <si>
     <t>Median</t>
   </si>
@@ -131,6 +131,9 @@
   <si>
     <t>West</t>
   </si>
+  <si>
+    <t>Coefficient of variation</t>
+  </si>
 </sst>
 </file>
 
@@ -195,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -204,6 +207,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -2829,19 +2835,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="13" width="11.85546875" customWidth="1"/>
+    <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2881,8 +2888,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2922,8 +2941,24 @@
       <c r="M2">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <f>MEDIAN(F2:M2)</f>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(F2:M2)</f>
+        <v>1872.1865045675727</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.S(F2:M2)</f>
+        <v>4.8614536701720571E-13</v>
+      </c>
+      <c r="S2">
+        <f>R2/Q2</f>
+        <v>2.5966716768396582E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2963,8 +2998,24 @@
       <c r="M3">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="0">MEDIAN(F3:M3)</f>
+        <v>1872.2948188710172</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="1">AVERAGE(F3:M3)</f>
+        <v>1872.296479963986</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="2">_xlfn.STDEV.S(F3:M3)</f>
+        <v>2.6354304665356634</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S33" si="3">R3/Q3</f>
+        <v>1.4075924912203843E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3004,8 +3055,24 @@
       <c r="M4">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.921658292141084E-13</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>1.0264246043077523E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3045,8 +3112,24 @@
       <c r="M5">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1872.5899211951848</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>1872.7275382016364</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>5.744017303920975</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>3.0671932711775593E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3086,8 +3169,24 @@
       <c r="M6">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>2.4307268350860286E-13</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1.2983358384198293E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3127,8 +3226,24 @@
       <c r="M7">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1871.8888393566181</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>1871.4257985462721</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>5.715193618540547</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>3.0539247791604254E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3168,8 +3283,24 @@
       <c r="M8">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675725</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>3.2155493553843715E-13</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.7175368733507039E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3209,8 +3340,24 @@
       <c r="M9">
         <v>1872.1865045675727</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>1872.1868392871777</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>1872.1870478397191</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1.3712401433404128E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>7.3242689341466213E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3250,8 +3397,24 @@
       <c r="M10">
         <v>1872.1865045675718</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>1872.186504567572</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675718</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>2.2737367544323206E-13</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>1.2144819700842235E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3291,8 +3454,24 @@
       <c r="M11">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>1871.9456891950158</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>1871.5247543936616</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>5.7082494382385853</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>3.0500528645628039E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3332,8 +3511,24 @@
       <c r="M12">
         <v>1872.1865045675718</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675725</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>3.3284097967743942E-13</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.7778195647998073E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3373,8 +3568,24 @@
       <c r="M13">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>1872.1865049533212</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>1872.186505181769</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>1.9551401429327796E-6</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>1.0443084262820048E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3414,8 +3625,24 @@
       <c r="M14">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675725</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>3.0985808910793224E-13</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>1.6550599438248894E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3455,8 +3682,24 @@
       <c r="M15">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1871.90404690064</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>1871.450719022976</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>5.7135081717986536</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>3.052983502970087E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3496,8 +3739,24 @@
       <c r="M16">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>1872.1865045675722</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>1872.1865045675725</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>3.7460016348991939E-13</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>2.0008699057279152E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3537,8 +3796,24 @@
       <c r="M17">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>1872.1865049533208</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>1872.1865051817686</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>1.9551401313400165E-6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>1.0443084200899065E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3578,8 +3853,24 @@
       <c r="M18">
         <v>1872.1865045675727</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>1872.1868130812902</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>1872.1865044877859</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>3.4833249614068325E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.8605651483209683E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3619,8 +3910,24 @@
       <c r="M19">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>1872.2948136441241</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>1872.2964799652682</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>2.6354284371014258</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1.4075914072916027E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3660,8 +3967,24 @@
       <c r="M20">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1872.1864989556354</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>1872.1864574032436</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>2.4164942553240429E-4</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.2907337545191753E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3701,8 +4024,24 @@
       <c r="M21">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>1872.5899151586923</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>1872.7275367973434</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>5.7440152489939544</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>3.0671921761865678E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3742,8 +4081,24 @@
       <c r="M22">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>1881.6466927215497</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>1867.8079723841195</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>154.20934279461457</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>8.25616685840449E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3783,8 +4138,24 @@
       <c r="M23">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>1879.4289862757842</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>1869.9321828883678</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>136.73381263558755</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>7.3122337744026281E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3824,8 +4195,24 @@
       <c r="M24">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1881.7849697384222</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>1868.0520675826847</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>153.79028204253112</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>8.2326550052504874E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3865,8 +4252,24 @@
       <c r="M25">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1879.4289703152276</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>1869.9321583557767</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>136.73381217214703</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>7.3122338455517272E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3906,8 +4309,24 @@
       <c r="M26">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>1884.3799402332684</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>1860.4462848023845</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>217.22248452149151</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.11675826724799246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3947,8 +4366,24 @@
       <c r="M27">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>1883.3227171417382</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>1859.7632346937007</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>214.3180078421571</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.11523940458875392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3988,8 +4423,24 @@
       <c r="M28">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>1877.9934460506979</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>1869.4235902716152</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>87.31330299042672</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>4.6706002558649998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4029,8 +4480,24 @@
       <c r="M29">
         <v>1872.1865045675722</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>1878.137398021669</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>1868.7336817678215</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>94.520767769788208</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>5.0580116734649738E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4070,8 +4537,24 @@
       <c r="M30">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>1884.9510844264412</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>1869.4095565536256</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>174.5145954990181</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>9.3352788792171765E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4111,8 +4594,24 @@
       <c r="M31">
         <v>1872.1865045675725</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>1885.7877800653873</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>1870.6027019000298</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>174.74470187245197</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>9.3416256533233002E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4152,8 +4651,24 @@
       <c r="M32">
         <v>1872.186504567572</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>1875.5781216934183</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>1871.1834498230403</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>45.469061282386242</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>2.4299627749853333E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4193,8 +4708,24 @@
       <c r="M33">
         <v>1872.1865045675727</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>1876.3970875765026</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>1871.1521002665304</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>55.417008853125431</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>2.9616517462814341E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -4207,35 +4738,35 @@
         <v>1872.1865045675722</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:M35" si="0">MEDIAN(G2:G33)</f>
+        <f t="shared" ref="G35:M35" si="4">MEDIAN(G2:G33)</f>
         <v>1872.1831087027988</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1872.1865045675722</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1872.186504567572</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1872.1865045675725</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1872.1865045675722</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1874.5153152622765</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1872.1865045675722</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -4248,35 +4779,35 @@
         <v>1877.2466885107524</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:M36" si="1">AVERAGE(G2:G33)</f>
+        <f t="shared" ref="G36:M36" si="5">AVERAGE(G2:G33)</f>
         <v>1788.0314954286926</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1833.7361196305069</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1828.9929865023189</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1911.2309526461379</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1915.251411331117</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1938.1521775868296</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1872.1865045675729</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -4289,35 +4820,35 @@
         <v>10.622208602314444</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:M37" si="2">_xlfn.STDEV.S(G2:G33)</f>
+        <f t="shared" ref="G37:M37" si="6">_xlfn.STDEV.S(G2:G33)</f>
         <v>122.38487102873374</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>61.40461474675574</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>67.120063937188348</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>59.328297391361076</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>66.082915311763955</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>94.68868441811945</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4297351409812377E-13</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -4330,31 +4861,31 @@
         <v>5.6583978372822166E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:M38" si="3">G37/G36</f>
+        <f t="shared" ref="G38:M38" si="7">G37/G36</f>
         <v>6.8446708764149114E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3486069281946966E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.6697824667740055E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1041929971477204E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4503519966517467E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.8855134035974003E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.9684802357323455E-16</v>
       </c>
     </row>
@@ -4371,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:N28"/>
+      <selection activeCell="P1" sqref="P1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4383,7 +4914,7 @@
     <col min="6" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4423,8 +4954,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4464,8 +5007,24 @@
       <c r="M2">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <f>MEDIAN(F2:M2)</f>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(F2:M2)</f>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.S(F2:M2)</f>
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="S2">
+        <f>R2/Q2</f>
+        <v>1.3819700400638199E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4505,8 +5064,24 @@
       <c r="M3">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="0">MEDIAN(F3:M3)</f>
+        <v>411.29843974832096</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="1">AVERAGE(F3:M3)</f>
+        <v>411.3050787628128</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="2">_xlfn.STDEV.S(F3:M3)</f>
+        <v>1.0705096034868347</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S33" si="3">R3/Q3</f>
+        <v>2.6027142837790371E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4546,8 +5121,24 @@
       <c r="M4">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>6.0768170877150714E-14</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>1.4773881167728774E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4587,8 +5178,24 @@
       <c r="M5">
         <v>411.32164383377648</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>411.41529913885904</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>411.54203513335489</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>2.3303643499145514</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>5.6625184087439016E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4628,8 +5235,24 @@
       <c r="M6">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>9.8455689542838467E-14</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>2.3936423239285325E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4669,8 +5292,24 @@
       <c r="M7">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>410.61451958816758</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>410.7112152497038</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>2.3396386277775365</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>5.6965540284919791E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4710,8 +5349,24 @@
       <c r="M8">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>6.7940880474816002E-14</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.6517701291272756E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4751,8 +5406,24 @@
       <c r="M9">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>411.32142871798965</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>411.32145530729571</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>5.5542345922809922E-4</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>1.3503391375807173E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4792,8 +5463,24 @@
       <c r="M10">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>5.6843418860808015E-14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>1.3819700400638199E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4833,8 +5520,24 @@
       <c r="M11">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>410.46084160781118</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>410.57611285615684</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>2.3470099510218105</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>5.7163821214413248E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4874,8 +5577,24 @@
       <c r="M12">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>5.2626779721126207E-14</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.2794556403745625E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4915,8 +5634,24 @@
       <c r="M13">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>411.32164355346947</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>411.32164358807682</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>7.944942471373867E-7</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>1.931564408346678E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4956,8 +5691,24 @@
       <c r="M14">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>7.746452227698306E-14</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>1.8833077091437494E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4997,8 +5748,24 @@
       <c r="M15">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>410.5826743219954</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>410.68328089767681</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>2.341256898626519</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>5.7008819387752274E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
@@ -5038,8 +5805,24 @@
       <c r="M16">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>411.32164383377642</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>411.32164383377636</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>7.1256996594457711E-14</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>1.7323911265718403E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5079,8 +5862,24 @@
       <c r="M17">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>411.32164355346936</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>411.32164358807671</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>7.9449430171452264E-7</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>1.9315645410339239E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>0</v>
       </c>
@@ -5120,8 +5919,24 @@
       <c r="M18">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>411.32166844467389</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>411.32164381155087</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>9.7113471320324572E-4</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>2.3610104836792302E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5161,8 +5976,24 @@
       <c r="M19">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>411.29843822212553</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>411.30507877253581</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>1.0705090293066202</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>2.6027128877215838E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>0</v>
       </c>
@@ -5202,8 +6033,24 @@
       <c r="M20">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>411.32163842824178</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>411.32163139381868</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>6.7348813973566656E-5</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.6373759324387133E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5243,8 +6090,24 @@
       <c r="M21">
         <v>411.32164383377648</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>411.41529741361671</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>411.54203479168655</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>2.330363761232888</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>5.662516983016003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5284,8 +6147,24 @@
       <c r="M22">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>410.1154889703169</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>416.50860342205721</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>40.762166876278208</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>9.7866326268831044E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5325,8 +6204,24 @@
       <c r="M23">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>410.90230878099442</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>414.43396779248724</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>36.784328418336358</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>8.8757995910110285E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0</v>
       </c>
@@ -5366,8 +6261,24 @@
       <c r="M24">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>410.17279002187655</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>416.5336256342373</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>40.682266408938951</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>9.7668624824691797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5407,8 +6318,24 @@
       <c r="M25">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>410.90230417807629</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>414.43396141128108</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>36.784326017740177</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>8.8757991484283053E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>0</v>
       </c>
@@ -5448,8 +6375,24 @@
       <c r="M26">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>407.16861995945976</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>420.67971835501487</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>51.010798211746973</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.12125804022883406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5489,8 +6432,24 @@
       <c r="M27">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>406.84767163708466</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>419.95412319829512</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>50.399735146124456</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.12001247841618778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>0</v>
       </c>
@@ -5530,8 +6489,24 @@
       <c r="M28">
         <v>411.32164383377636</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>411.17005944640727</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>412.46773542131444</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>23.319504258571239</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>5.6536553664619543E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5571,8 +6546,24 @@
       <c r="M29">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>410.99081360666935</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>412.57011765929349</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>25.104167809279549</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>6.084824550965405E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>0</v>
       </c>
@@ -5612,8 +6603,24 @@
       <c r="M30">
         <v>411.32164383377642</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>409.47728209340301</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>417.89087782409905</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>44.177918755510653</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0.1057163989449568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5653,8 +6660,24 @@
       <c r="M31">
         <v>411.32164383377648</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>409.68270347415933</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>418.16943018392288</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>44.349901335842063</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0.10605725367427195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>0</v>
       </c>
@@ -5694,8 +6717,24 @@
       <c r="M32">
         <v>411.32164383377631</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>411.53731285596837</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>411.73085272105442</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>12.428924421213649</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>3.0187012557045811E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
@@ -5735,8 +6774,24 @@
       <c r="M33">
         <v>411.32164383377659</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>411.55789924742089</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>411.94989901095443</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>15.085666102159719</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>3.6620147591682174E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -5749,35 +6804,35 @@
         <v>411.32164383377642</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:M35" si="0">MEDIAN(G2:G33)</f>
+        <f t="shared" ref="G35:M35" si="4">MEDIAN(G2:G33)</f>
         <v>411.27523413667012</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>411.32164383377636</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>409.18358560141667</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>411.32164383377642</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>411.32412637859488</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>411.32164383377642</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>411.32164383377642</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -5790,35 +6845,35 @@
         <v>410.63302070290206</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:M36" si="1">AVERAGE(G2:G33)</f>
+        <f t="shared" ref="G36:M36" si="5">AVERAGE(G2:G33)</f>
         <v>394.78035051151585</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>401.99132077333115</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>404.47419988107237</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>420.5630408044583</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>426.81879837049064</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>432.45985448669569</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>411.32164383377665</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -5831,35 +6886,35 @@
         <v>2.436496583556552</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:M37" si="2">_xlfn.STDEV.S(G2:G33)</f>
+        <f t="shared" ref="G37:M37" si="6">_xlfn.STDEV.S(G2:G33)</f>
         <v>22.427725215800553</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15.660493735972279</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.1313276402171279</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14.464450635792216</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23.177124709554015</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32.354974941864327</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.4714290765454062E-13</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -5872,31 +6927,31 @@
         <v>5.9335135284197876E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:M38" si="3">G37/G36</f>
+        <f t="shared" ref="G38:M38" si="7">G37/G36</f>
         <v>5.681064213743417E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8957293172015232E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2575797524049777E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.4393061758647245E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.4302024179908828E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.481613520003555E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.0085072438934441E-16</v>
       </c>
     </row>
@@ -5913,10 +6968,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P1" sqref="P1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5925,7 +6980,7 @@
     <col min="6" max="13" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -5965,8 +7020,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6006,8 +7073,24 @@
       <c r="M2">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <f>MEDIAN(F2:M2)</f>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(F2:M2)</f>
+        <v>69.922321774521279</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.S(F2:M2)</f>
+        <v>1.7814249148614428E-14</v>
+      </c>
+      <c r="S2">
+        <f>R2/Q2</f>
+        <v>2.5477199121133436E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6047,8 +7130,24 @@
       <c r="M3">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="0">MEDIAN(F3:M3)</f>
+        <v>69.927931651014205</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="1">AVERAGE(F3:M3)</f>
+        <v>69.926203257030011</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="2">_xlfn.STDEV.S(F3:M3)</f>
+        <v>8.2497850172210396E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S33" si="3">R3/Q3</f>
+        <v>1.1797844917872972E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6088,8 +7187,24 @@
       <c r="M4">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>2.032377408894943E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6129,8 +7244,24 @@
       <c r="M5">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>69.929364454030662</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>69.925668347664313</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.1789549133789505</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2.5592163451223994E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -6170,8 +7301,24 @@
       <c r="M6">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>69.922321774521322</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1.4210854715202004E-14</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>2.032377408894942E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -6211,8 +7358,24 @@
       <c r="M7">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>69.931685070879041</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>69.925883967155769</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0.17850672475555135</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>2.5527989726865101E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -6252,8 +7415,24 @@
       <c r="M8">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>7.5960213596438392E-15</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0863514206720351E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -6293,8 +7472,24 @@
       <c r="M9">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>69.922350032709502</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>69.922346120006196</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>4.3592062819846424E-5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>6.2343535706067866E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6334,8 +7529,24 @@
       <c r="M10">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>69.922321774521279</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>1.5192042719287678E-14</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>2.1727028413440709E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -6375,8 +7586,24 @@
       <c r="M11">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>69.943660149025732</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>69.936280850966725</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.17860109606013777</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>2.5537688576939672E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6416,8 +7643,24 @@
       <c r="M12">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>69.922321774521293</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>9.303188203204756E-15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.3305033309970417E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -6457,8 +7700,24 @@
       <c r="M13">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>69.922321808155317</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>69.922321803406362</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>6.1955450500909297E-8</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>8.8606111614976507E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6498,8 +7757,24 @@
       <c r="M14">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -6539,8 +7814,24 @@
       <c r="M15">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>69.934087951786381</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>69.927934066818082</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.17849314705221034</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>2.5525299643723949E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
@@ -6580,8 +7871,24 @@
       <c r="M16">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>69.922321774521308</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>1.5192042719287678E-14</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>2.1727028413440701E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6621,8 +7928,24 @@
       <c r="M17">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>69.922321808155303</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>69.922321803406362</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>6.1955447045096691E-8</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>8.860610667261688E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>0</v>
       </c>
@@ -6662,8 +7985,24 @@
       <c r="M18">
         <v>69.922321774521322</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>69.922331544032659</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>69.922321772874284</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>7.2684119846978069E-5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.0394980887945171E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6703,8 +8042,24 @@
       <c r="M19">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>69.927931599154164</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>69.926203256383857</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>8.2497828547281396E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1.1797841825446145E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>0</v>
       </c>
@@ -6744,8 +8099,24 @@
       <c r="M20">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>69.922321871588082</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>69.922320761932681</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>5.0432441654033989E-6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>7.2126384113798701E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6785,8 +8156,24 @@
       <c r="M21">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>69.929364366372624</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>69.925668315943426</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0.17895489201284565</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>2.5592160407288231E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>0</v>
       </c>
@@ -6826,8 +8213,24 @@
       <c r="M22">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>70.396840128682939</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>69.434257175328199</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>3.4945992852708523</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>5.032961289477976E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6867,8 +8270,24 @@
       <c r="M23">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>70.275787330248832</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>69.613101727487276</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>3.0406712975431116</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>4.3679583614106926E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0</v>
       </c>
@@ -6908,8 +8327,24 @@
       <c r="M24">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>70.398364408177059</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>69.442139045455065</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>3.4822430715760415</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>5.0145964963675058E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6949,8 +8384,24 @@
       <c r="M25">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>70.275787001253192</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>69.613101183582913</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>3.0406714669100894</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>4.3679586388361918E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>0</v>
       </c>
@@ -6990,8 +8441,24 @@
       <c r="M26">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>70.673618405559012</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>68.869896540713142</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>5.3364208782158684</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>7.7485536442779307E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
@@ -7031,8 +8498,24 @@
       <c r="M27">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>70.653884037809689</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>68.890522968202291</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>5.2620339400158898</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>7.6382551812600979E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>0</v>
       </c>
@@ -7072,8 +8555,24 @@
       <c r="M28">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>70.153733789328598</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>69.74095455076656</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>1.9108620490263803</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>2.7399424933815694E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
@@ -7113,8 +8612,24 @@
       <c r="M29">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>70.171223043983844</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>69.706877327882808</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>2.080549424257065</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>2.9847118448165566E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>0</v>
       </c>
@@ -7154,8 +8669,24 @@
       <c r="M30">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>70.546853797031233</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>69.387212167590633</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>4.0426016571734538</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>5.8261479758105507E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
@@ -7195,8 +8726,24 @@
       <c r="M31">
         <v>69.922321774521308</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>70.56476749240187</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>69.413238790946679</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>4.0369335742806083</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>5.8157977420398528E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>0</v>
       </c>
@@ -7236,8 +8783,24 @@
       <c r="M32">
         <v>69.922321774521293</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>70.036704191241128</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>69.859432672145104</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0.97001341086173554</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>1.3885217410998341E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7277,8 +8840,24 @@
       <c r="M33">
         <v>69.922321774521322</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>70.066857780074031</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>69.843700263435124</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>1.1878851725790949</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>1.7007764023077993E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -7291,35 +8870,35 @@
         <v>69.922321774521308</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:M35" si="0">MEDIAN(G2:G33)</f>
+        <f t="shared" ref="G35:M35" si="4">MEDIAN(G2:G33)</f>
         <v>69.922321774521293</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>69.922321774521293</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>69.922321774521293</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>69.924887177337595</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>69.922321774521308</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>70.129692227962607</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>69.922321774521308</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -7332,35 +8911,35 @@
         <v>70.192019258500949</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:M36" si="1">AVERAGE(G2:G33)</f>
+        <f t="shared" ref="G36:M36" si="5">AVERAGE(G2:G33)</f>
         <v>67.714361762204575</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69.025712941935879</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68.704089618300131</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70.83679818686096</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70.624380018300329</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>71.054937172699411</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69.922321774521322</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -7373,35 +8952,35 @@
         <v>0.5422410011998442</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:M37" si="2">_xlfn.STDEV.S(G2:G33)</f>
+        <f t="shared" ref="G37:M37" si="6">_xlfn.STDEV.S(G2:G33)</f>
         <v>3.3737034568797473</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3834039286781152</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.9675250695964916</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3399185642436706</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1160427024792827</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5244302394429228</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.9770378220307872E-14</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -7414,31 +8993,31 @@
         <v>7.725109021338967E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:M38" si="3">G37/G36</f>
+        <f t="shared" ref="G38:M38" si="7">G37/G36</f>
         <v>4.9822568936370194E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.0041863672481418E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8637670341423439E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8915572111391717E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.5802513270772665E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.1454247939700331E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8274773661065574E-16</v>
       </c>
     </row>
@@ -7455,10 +9034,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="P1" sqref="P1:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7467,7 +9046,7 @@
     <col min="6" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -7507,8 +9086,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7548,8 +9139,24 @@
       <c r="M2">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <f>MEDIAN(F2:M2)</f>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(F2:M2)</f>
+        <v>58.667458765795807</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.S(F2:M2)</f>
+        <v>8.9071245743072139E-15</v>
+      </c>
+      <c r="S2">
+        <f>R2/Q2</f>
+        <v>1.5182393718236572E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7589,8 +9196,24 @@
       <c r="M3">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="0">MEDIAN(F3:M3)</f>
+        <v>58.635999593222543</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="1">AVERAGE(F3:M3)</f>
+        <v>58.665657829979025</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="2">_xlfn.STDEV.S(F3:M3)</f>
+        <v>9.5250695666561552E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S33" si="3">R3/Q3</f>
+        <v>1.6236193232949147E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -7630,8 +9253,24 @@
       <c r="M4">
         <v>58.667458765795807</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>7.1054273576010019E-15</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>1.2111360381171979E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7671,8 +9310,24 @@
       <c r="M5">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>58.6126155632737</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>58.686236642556409</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>0.20673280994395654</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>3.5226796225342545E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -7712,8 +9367,24 @@
       <c r="M6">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>58.667458765795821</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1.0742396426884034E-14</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1.8310655775578002E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -7753,8 +9424,24 @@
       <c r="M7">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>58.589864497002544</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>58.649707581081053</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0.20577795775202287</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>3.5085930729926054E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -7794,8 +9481,24 @@
       <c r="M8">
         <v>58.667458765795843</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>58.667458765795821</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>1.4709632111668204E-14</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>2.5072898027490809E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -7835,8 +9538,24 @@
       <c r="M9">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>58.667436213529058</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>58.667446799255671</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>4.9279893507126957E-5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>8.3998701487299399E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -7876,8 +9595,24 @@
       <c r="M10">
         <v>58.6674587657958</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>58.667458765795807</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>6.0051821629408876E-15</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>1.0235967756697889E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -7917,8 +9652,24 @@
       <c r="M11">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>58.580413364938408</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>58.633292424520803</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.20638722229517822</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>3.5199664518389866E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -7958,8 +9709,24 @@
       <c r="M12">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>58.667458765795821</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>8.9071245743072139E-15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.518239371823657E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -7999,8 +9766,24 @@
       <c r="M13">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>58.667458733259849</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>58.667458748258419</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>7.0622057995244222E-8</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>1.203768826911063E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -8040,8 +9823,24 @@
       <c r="M14">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>58.667458765795821</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1.0742396426884034E-14</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>1.8310655775578002E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -8081,8 +9880,24 @@
       <c r="M15">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>58.588400828900525</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>58.647236797109294</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.20584511717637263</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>3.5098860307518987E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
@@ -8122,8 +9937,24 @@
       <c r="M16">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>58.667458765795814</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>1.2596576374731943E-14</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>2.1471147105618242E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
@@ -8163,8 +9994,24 @@
       <c r="M17">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>58.667458733259849</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>58.667458748258412</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>7.0622062169910225E-8</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>1.2037688980691821E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>0</v>
       </c>
@@ -8204,8 +10051,24 @@
       <c r="M18">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>58.667466061715821</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>58.667458764408586</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>6.5670014613889308E-5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>1.1193601358736357E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
@@ -8245,8 +10108,24 @@
       <c r="M19">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>58.635999485217546</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>58.665657831107858</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>9.5250689051702586E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>1.6236192105084566E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>0</v>
       </c>
@@ -8286,8 +10165,24 @@
       <c r="M20">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>58.667458885494966</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>58.667458092189435</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>4.5496941405147446E-6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>7.755055849471784E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
@@ -8327,8 +10222,24 @@
       <c r="M21">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>58.612615443670123</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>58.686236626255763</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0.20673280230745109</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>3.5226794933884112E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>0</v>
       </c>
@@ -8368,8 +10279,24 @@
       <c r="M22">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>59.385834042718258</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>59.735931901406147</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>3.0718145810990976</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>5.1423230262300286E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
@@ -8409,8 +10336,24 @@
       <c r="M23">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>59.162181240643008</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>59.476521875431189</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>2.7607318541320458</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>4.6417170457851882E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0</v>
       </c>
@@ -8450,8 +10393,24 @@
       <c r="M24">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>59.386208823198217</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>59.733589740330594</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>3.0621456484521041</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>5.1263378975943609E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8491,8 +10450,24 @@
       <c r="M25">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>59.162181001780283</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>59.476521543507573</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>2.7607318498691877</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>4.6417170645221564E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>0</v>
       </c>
@@ -8532,8 +10507,24 @@
       <c r="M26">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>59.265144935161054</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>59.230914473048799</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>4.2918323819273123</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>7.245933006623051E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
@@ -8573,8 +10564,24 @@
       <c r="M27">
         <v>58.667458765795821</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>59.220825365133479</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>59.175377507586518</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>4.2421159172087242</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>7.1687179632523135E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>0</v>
       </c>
@@ -8614,8 +10621,24 @@
       <c r="M28">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>58.944703669010522</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>58.836687020836351</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>1.6943900446678881</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>2.8798189198991422E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
@@ -8655,8 +10678,24 @@
       <c r="M29">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>58.961527428957041</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>58.844564230311065</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>1.8401358361167506</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>3.1271126911819144E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>0</v>
       </c>
@@ -8696,8 +10735,24 @@
       <c r="M30">
         <v>58.667458765795807</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>59.237915996230896</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>59.200427554593162</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>3.5136720141740985</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>5.935213915362144E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
@@ -8737,8 +10792,24 @@
       <c r="M31">
         <v>58.667458765795828</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>59.244023307727623</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>59.18791014002548</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>3.5256712528016778</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>5.9567422543906699E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>0</v>
       </c>
@@ -8778,8 +10849,24 @@
       <c r="M32">
         <v>58.667458765795814</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>58.818937884807795</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>58.763860284728779</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0.86732290168094217</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>1.4759460959142216E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
@@ -8819,8 +10906,24 @@
       <c r="M33">
         <v>58.667458765795836</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>58.853260071961188</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>58.787352535592184</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>1.0611226190761522</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>1.8050185512839802E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -8833,35 +10936,35 @@
         <v>58.667458765795814</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:M35" si="0">MEDIAN(G2:G33)</f>
+        <f t="shared" ref="G35:M35" si="4">MEDIAN(G2:G33)</f>
         <v>58.557772241148001</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.667458765795814</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.667458765795814</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.667458765795828</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.83996488914002</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.667458765795814</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>58.667458765795821</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -8874,35 +10977,35 @@
         <v>58.428888456159925</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:M36" si="1">AVERAGE(G2:G33)</f>
+        <f t="shared" ref="G36:M36" si="5">AVERAGE(G2:G33)</f>
         <v>56.940694894741576</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58.37122339176296</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59.627061175995699</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58.98793144889968</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59.93504319076488</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59.981857630565784</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58.667458765795807</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -8915,35 +11018,35 @@
         <v>0.55242763134698547</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:M37" si="2">_xlfn.STDEV.S(G2:G33)</f>
+        <f t="shared" ref="G37:M37" si="6">_xlfn.STDEV.S(G2:G33)</f>
         <v>2.4495435246402222</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.73021665106563705</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.6124116644015529</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5427657593490649</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.7761004907489233</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.0057497153806456</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.614244622052936E-14</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -8956,31 +11059,31 @@
         <v>9.4547003364864671E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:M38" si="3">G37/G36</f>
+        <f t="shared" ref="G38:M38" si="7">G37/G36</f>
         <v>4.3019206723211863E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2509874020709345E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7041608836671425E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.2013017920327383E-3</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9633756750551479E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3439273050432303E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7515161829270675E-16</v>
       </c>
     </row>
@@ -8997,10 +11100,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9009,7 +11112,7 @@
     <col min="6" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -9049,8 +11152,20 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9090,8 +11205,24 @@
       <c r="M2">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="P2">
+        <f>MEDIAN(F2:M2)</f>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(F2:M2)</f>
+        <v>9.2714537555827139</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.STDEV.S(F2:M2)</f>
+        <v>1.8990053399109598E-15</v>
+      </c>
+      <c r="S2">
+        <f>R2/Q2</f>
+        <v>2.0482282390369392E-16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9131,8 +11262,24 @@
       <c r="M3">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3">
+        <f t="shared" ref="P3:P33" si="0">MEDIAN(F3:M3)</f>
+        <v>9.2699616566738197</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q33" si="1">AVERAGE(F3:M3)</f>
+        <v>9.271194300007533</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R33" si="2">_xlfn.STDEV.S(F3:M3)</f>
+        <v>2.419756521939849E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S33" si="3">R3/Q3</f>
+        <v>2.6099728294313525E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -9172,8 +11319,24 @@
       <c r="M4">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>1.3427995533605042E-15</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>1.4483160772407999E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -9213,8 +11376,24 @@
       <c r="M5">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>9.2713885922650157</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>9.2765087311284411</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>5.2714700342590334E-2</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>5.6826012749494658E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -9254,8 +11433,24 @@
       <c r="M6">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>1.9159420800978855E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -9295,8 +11490,24 @@
       <c r="M7">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>9.2545277585383978</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>9.258079195871737</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>5.2749744242399976E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>5.6976985318857041E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9336,8 +11547,24 @@
       <c r="M8">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>9.495026699554799E-16</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>1.0241141195184692E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9377,8 +11604,24 @@
       <c r="M9">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>9.2714489875909951</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>9.2714498798949023</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1.2530448707501731E-5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>1.3515090810849285E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9418,8 +11661,24 @@
       <c r="M10">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>1.7763568394002505E-15</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>1.915942080097886E-16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -9459,8 +11718,24 @@
       <c r="M11">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>9.251019798572468</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>9.2549905721301275</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>5.2912620145657625E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>5.7171987084454982E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -9500,8 +11775,24 @@
       <c r="M12">
         <v>9.2714537555827139</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>1.644586866285194E-15</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>1.7738176877546545E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -9541,8 +11832,24 @@
       <c r="M13">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>9.2714537491227418</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>9.2714537503547536</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>1.7937165648613895E-8</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>1.9346659252792548E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -9582,8 +11889,24 @@
       <c r="M14">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>1.1628985254005945E-15</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>1.2542785155999578E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -9623,8 +11946,24 @@
       <c r="M15">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>9.2538569790596483</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>9.2574893149484403</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>5.2780841170266421E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>5.7014206956781544E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
@@ -9664,8 +12003,24 @@
       <c r="M16">
         <v>9.2714537555827192</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>9.2714537555827174</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>9.2714537555827157</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>2.0141993300407565E-15</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>2.1724741158612003E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>1</v>
       </c>
@@ -9705,8 +12060,24 @@
       <c r="M17">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>9.27145374912274</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>9.2714537503547554</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>1.7937167143355781E-8</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>1.9346660864990508E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>0</v>
       </c>
@@ -9746,8 +12117,24 @@
       <c r="M18">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>9.2714540978856039</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>9.2714537550285421</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>2.4259820592250305E-5</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>2.6166145281253815E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>1</v>
       </c>
@@ -9787,8 +12174,24 @@
       <c r="M19">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>9.2699616182477165</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>9.2711943002464032</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>2.4197551568852251E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>2.6099713570029641E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>0</v>
       </c>
@@ -9828,8 +12231,24 @@
       <c r="M20">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>9.2714536035759707</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>9.2714534481008677</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1.6823353172845873E-6</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>1.8145324535164344E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9869,8 +12288,24 @@
       <c r="M21">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>9.2713885488514372</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>9.2765087226839693</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>5.2714686298960797E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>5.6825997662306813E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>0</v>
       </c>
@@ -9910,8 +12345,24 @@
       <c r="M22">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>9.2441091839358673</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>9.4173312867848047</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1.0061384176937038</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0.10683901702657549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9951,8 +12402,24 @@
       <c r="M23">
         <v>9.2714537555827192</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>9.2613821828538008</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>9.3680200959075322</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0.90936007355447268</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>9.70706792091246E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>0</v>
       </c>
@@ -9992,8 +12459,24 @@
       <c r="M24">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>9.2455112909867552</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>9.4178517200483469</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>1.0042518864635119</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0.10663279868015979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>1</v>
       </c>
@@ -10033,8 +12516,24 @@
       <c r="M25">
         <v>9.2714537555827192</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>9.2613820680223018</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>9.3680199410615153</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>0.90936001651455278</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>9.7070674724835271E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>0</v>
       </c>
@@ -10074,8 +12573,24 @@
       <c r="M26">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>9.1541289896909515</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>9.4944099012781109</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>1.2602741414853555</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0.13273854347869488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>1</v>
       </c>
@@ -10115,8 +12630,24 @@
       <c r="M27">
         <v>9.2714537555827139</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>9.1462505114046699</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>9.4767308652269691</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>1.2461398781502584</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.13149469958282003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>0</v>
       </c>
@@ -10156,8 +12687,24 @@
       <c r="M28">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>9.2634201259016997</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>9.3006547064074034</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>0.58396545769723651</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>6.2787564545851951E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>1</v>
       </c>
@@ -10197,8 +12744,24 @@
       <c r="M29">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>9.2585720169408834</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>9.302981420314941</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0.62866323649324241</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>6.7576533596039337E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>0</v>
       </c>
@@ -10238,8 +12801,24 @@
       <c r="M30">
         <v>9.2714537555827174</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>9.2171759561660327</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>9.4319593304165963</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>1.0967954630046857</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0.11628500766194905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>1</v>
       </c>
@@ -10279,8 +12858,24 @@
       <c r="M31">
         <v>9.2714537555827192</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>9.2217979683621252</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>9.4378600860722273</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>1.1013610853899989</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0.11669605984256061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32">
         <v>0</v>
       </c>
@@ -10320,8 +12915,24 @@
       <c r="M32">
         <v>9.2714537555827157</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>9.2746340919962869</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>9.2828724006760392</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>0.31101333445072732</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>3.3503997580326246E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33">
         <v>1</v>
       </c>
@@ -10361,8 +12972,24 @@
       <c r="M33">
         <v>9.2714537555827192</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>9.2746681790488275</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>9.2883394990575532</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>0.37758039767589802</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>4.0651011702813988E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>0</v>
       </c>
@@ -10375,35 +13002,35 @@
         <v>9.2714537555827174</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:M35" si="0">MEDIAN(G2:G33)</f>
+        <f t="shared" ref="G35:M35" si="4">MEDIAN(G2:G33)</f>
         <v>9.2684695193388187</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2714537555827157</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2287688761349482</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2714537555827174</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2719413199331129</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2714537555827174</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.2714537555827174</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>1</v>
       </c>
@@ -10416,35 +13043,35 @@
         <v>9.2496397612601733</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:M36" si="1">AVERAGE(G2:G33)</f>
+        <f t="shared" ref="G36:M36" si="5">AVERAGE(G2:G33)</f>
         <v>8.8362803921381143</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.0448445804869628</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.144109342231717</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.4981248652690251</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.6582469186258564</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.7927731390714943</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.2714537555827174</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -10457,35 +13084,35 @@
         <v>6.6388452520140556E-2</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:M37" si="2">_xlfn.STDEV.S(G2:G33)</f>
+        <f t="shared" ref="G37:M37" si="6">_xlfn.STDEV.S(G2:G33)</f>
         <v>0.59053592140612332</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.38050882145019205</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16610922979321194</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.35634999739708273</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57494128563576907</v>
       </c>
       <c r="L37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.79094326166314899</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.5629856344789767E-15</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
@@ -10498,31 +13125,31 @@
         <v>7.1774095244435529E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:M38" si="3">G37/G36</f>
+        <f t="shared" ref="G38:M38" si="7">G37/G36</f>
         <v>6.6830826456292583E-2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2069138730265056E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.8165709045717866E-2</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.7517931428772543E-2</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.9528534575669124E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.076805726331189E-2</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6858042715661929E-16</v>
       </c>
     </row>
@@ -10539,19 +13166,20 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="11" width="11.85546875" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -10585,8 +13213,12 @@
       <c r="K1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10621,7 +13253,7 @@
         <v>1936.1120307552164</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10656,7 +13288,7 @@
         <v>1936.0998305911576</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -10691,7 +13323,7 @@
         <v>1937.5252207297883</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10726,7 +13358,7 @@
         <v>1937.3331884244542</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>0</v>
       </c>
@@ -10758,7 +13390,7 @@
         <v>1936.1120307552148</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1</v>
       </c>
@@ -10790,7 +13422,7 @@
         <v>1936.1222797323705</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10822,7 +13454,7 @@
         <v>1936.3059890242287</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10854,7 +13486,7 @@
         <v>1936.902473166328</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>0</v>
       </c>
@@ -10889,7 +13521,7 @@
         <v>1935.8413366645414</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1</v>
       </c>
@@ -10924,7 +13556,7 @@
         <v>1935.8290081267867</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>0</v>
       </c>
@@ -10959,7 +13591,7 @@
         <v>1858.8518773460755</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10994,7 +13626,7 @@
         <v>1937.1179502586854</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11026,7 +13658,7 @@
         <v>1933.6073232671783</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>1</v>
       </c>
@@ -11058,7 +13690,7 @@
         <v>1933.616589398855</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>0</v>
       </c>
